--- a/main/df_results_all.xlsx
+++ b/main/df_results_all.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2013-12-31</t>
+          <t>2001-12-31</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -542,31 +542,31 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.3760349452495575</v>
+        <v>0.4909489452838898</v>
       </c>
       <c r="I2" t="n">
-        <v>1.140809535980225</v>
+        <v>0.840747058391571</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8274616003036499</v>
+        <v>0.7799999713897705</v>
       </c>
       <c r="K2" t="n">
-        <v>0.526232123374939</v>
+        <v>0.5099322199821472</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5262321144674086</v>
+        <v>0.5099322271558775</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5537555228276878</v>
+        <v>0.5524581855043081</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5620328849028401</v>
+        <v>0.4730902777777778</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5578635014836796</v>
+        <v>0.5097030628945524</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5461487510182951</v>
+        <v>0.5128845815752462</v>
       </c>
     </row>
   </sheetData>

--- a/main/df_results_all.xlsx
+++ b/main/df_results_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,31 +489,6 @@
           <t xml:space="preserve">Val Accu     </t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Accuracy     </t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Precision    </t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recall       </t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">F1-Score     </t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">AUC-ROC      </t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -521,7 +496,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2001-12-31</t>
+          <t>2017-12-31</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -542,31 +517,16 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.4909489452838898</v>
+        <v>0.6879452466964722</v>
       </c>
       <c r="I2" t="n">
-        <v>0.840747058391571</v>
+        <v>0.6901541948318481</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7799999713897705</v>
+        <v>0.5374307036399841</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5099322199821472</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.5099322271558775</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.5524581855043081</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.4730902777777778</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.5097030628945524</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.5128845815752462</v>
+        <v>0.5816733241081238</v>
       </c>
     </row>
   </sheetData>

--- a/main/df_results_all.xlsx
+++ b/main/df_results_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,27 +436,27 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lags         </t>
+          <t>Lags</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cutoff Date  </t>
+          <t>Cutoff Date</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dropout      </t>
+          <t>Dropout</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neurons      </t>
+          <t>Neurons</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Batch Size   </t>
+          <t>Batch Size</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,33 +466,43 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Optimizer    </t>
+          <t>Optimizer</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Train Loss   </t>
+          <t>Train Loss</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Val Loss     </t>
+          <t>Val Loss</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Train Accu   </t>
+          <t>Train Accu</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Val Accu     </t>
+          <t>Val Accu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Best val_accuracy</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Best epoch</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -517,16 +527,2137 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.6879452466964722</v>
+        <v>0.6745230555534363</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6901541948318481</v>
+        <v>0.6800983548164368</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5374307036399841</v>
+        <v>0.5820240378379822</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5816733241081238</v>
+        <v>0.5936254858970642</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.5936254858970642</v>
+      </c>
+      <c r="M2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E3" t="n">
+        <v>32</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.67415851354599</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6843050718307495</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5852587819099426</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5378485918045044</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.5577689409255981</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>30</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30</v>
+      </c>
+      <c r="E4" t="n">
+        <v>64</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6783155798912048</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6857689619064331</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5630776286125183</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5697211027145386</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5697211027145386</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>30</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E5" t="n">
+        <v>16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6930336952209473</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.693901538848877</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5217190384864807</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.525896430015564</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5338645577430725</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>60</v>
+      </c>
+      <c r="E6" t="n">
+        <v>32</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.6611835956573486</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.7103390097618103</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.6018946170806885</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5498008131980896</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5498008131980896</v>
+      </c>
+      <c r="M6" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>60</v>
+      </c>
+      <c r="E7" t="n">
+        <v>64</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6465739607810974</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.7003464698791504</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.6259242296218872</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.5139442086219788</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.5776892304420471</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>30</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>30</v>
+      </c>
+      <c r="E8" t="n">
+        <v>16</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.6957669258117676</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.6917647123336792</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5251848697662354</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.525896430015564</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.5856573581695557</v>
+      </c>
+      <c r="M8" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>30</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E9" t="n">
+        <v>32</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.6958789229393005</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.7035381197929382</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5207948088645935</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.5019920468330383</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.5338645577430725</v>
+      </c>
+      <c r="M9" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>30</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>30</v>
+      </c>
+      <c r="E10" t="n">
+        <v>64</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.6940664649009705</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.6925910711288452</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.530036985874176</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.525896430015564</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.5418326854705811</v>
+      </c>
+      <c r="M10" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>30</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>60</v>
+      </c>
+      <c r="E11" t="n">
+        <v>16</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0.6932908892631531</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.6924712657928467</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5237985253334045</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.525896430015564</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.5537848472595215</v>
+      </c>
+      <c r="M11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>30</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>60</v>
+      </c>
+      <c r="E12" t="n">
+        <v>32</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0.6999638080596924</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.6957582831382751</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5184842944145203</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.4980079829692841</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.5378485918045044</v>
+      </c>
+      <c r="M12" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>30</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>60</v>
+      </c>
+      <c r="E13" t="n">
+        <v>64</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>0.6967864632606506</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.6962451934814453</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5194085240364075</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.5019920468330383</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.5498008131980896</v>
+      </c>
+      <c r="M13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>40</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>30</v>
+      </c>
+      <c r="E14" t="n">
+        <v>16</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>0.6760578751564026</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.7109180688858032</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5792514085769653</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.4940239191055298</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.5657370686531067</v>
+      </c>
+      <c r="M14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>40</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>30</v>
+      </c>
+      <c r="E15" t="n">
+        <v>32</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0.6742342114448547</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.7033386826515198</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5755545496940613</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.5179283022880554</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.525896430015564</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>40</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>30</v>
+      </c>
+      <c r="E16" t="n">
+        <v>64</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0.6759419441223145</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.7067227363586426</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5704713463783264</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5179283022880554</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.5378485918045044</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>40</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>60</v>
+      </c>
+      <c r="E17" t="n">
+        <v>16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>0.692955493927002</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6942461133003235</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5210258960723877</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.5298804640769958</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.5498008131980896</v>
+      </c>
+      <c r="M17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>40</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>60</v>
+      </c>
+      <c r="E18" t="n">
+        <v>32</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>0.6599343419075012</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.7295723557472229</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.6095194220542908</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.4900398552417755</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.5418326854705811</v>
+      </c>
+      <c r="M18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>40</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>60</v>
+      </c>
+      <c r="E19" t="n">
+        <v>64</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>0.6535536646842957</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.7338205575942993</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.6192236542701721</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.4940239191055298</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.5338645577430725</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>40</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D20" t="n">
+        <v>30</v>
+      </c>
+      <c r="E20" t="n">
+        <v>16</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>0.6963775157928467</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.7016388773918152</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5196395516395569</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.4980079829692841</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.5577689409255981</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>40</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>30</v>
+      </c>
+      <c r="E21" t="n">
+        <v>32</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>0.6955516934394836</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6931193470954895</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5219500660896301</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.5298804640769958</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.56175297498703</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>40</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D22" t="n">
+        <v>30</v>
+      </c>
+      <c r="E22" t="n">
+        <v>64</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6950430870056152</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6917338967323303</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5214880108833313</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.5298804640769958</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.5418326854705811</v>
+      </c>
+      <c r="M22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>40</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>60</v>
+      </c>
+      <c r="E23" t="n">
+        <v>16</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>0.6933377981185913</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.701414942741394</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.530730128288269</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.5298804640769958</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.5537848472595215</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>40</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D24" t="n">
+        <v>60</v>
+      </c>
+      <c r="E24" t="n">
+        <v>32</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>0.6984889507293701</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.6938063502311707</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5117837190628052</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.5139442086219788</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.5737051963806152</v>
+      </c>
+      <c r="M24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>40</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D25" t="n">
+        <v>60</v>
+      </c>
+      <c r="E25" t="n">
+        <v>64</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>0.6944599747657776</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.7026039958000183</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5325785875320435</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.5139442086219788</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.5458167195320129</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>50</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>30</v>
+      </c>
+      <c r="E26" t="n">
+        <v>16</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>0.6814118027687073</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.690488874912262</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5711644887924194</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.5179283022880554</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.5856573581695557</v>
+      </c>
+      <c r="M26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>50</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>30</v>
+      </c>
+      <c r="E27" t="n">
+        <v>32</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>0.6767998933792114</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.694056510925293</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.5690850019454956</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.5219123363494873</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.5458167195320129</v>
+      </c>
+      <c r="M27" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>50</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>30</v>
+      </c>
+      <c r="E28" t="n">
+        <v>64</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>0.6797923445701599</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.6963463425636292</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5616912841796875</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.5019920468330383</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.5338645577430725</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>50</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>60</v>
+      </c>
+      <c r="E29" t="n">
+        <v>16</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>0.6917864084243774</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.7028111219406128</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5217190384864807</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.5139442086219788</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.5418326854705811</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>50</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>60</v>
+      </c>
+      <c r="E30" t="n">
+        <v>32</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>0.6588189601898193</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.7136015295982361</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.6000462174415588</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.525896430015564</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.56175297498703</v>
+      </c>
+      <c r="M30" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>50</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>60</v>
+      </c>
+      <c r="E31" t="n">
+        <v>64</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>0.6625810861587524</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.7154137492179871</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.6055914759635925</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.4860557913780212</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.5458167195320129</v>
+      </c>
+      <c r="M31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>50</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>30</v>
+      </c>
+      <c r="E32" t="n">
+        <v>16</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>0.6943491697311401</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.6903807520866394</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5201016664505005</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5219123363494873</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.5338645577430725</v>
+      </c>
+      <c r="M32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>50</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>30</v>
+      </c>
+      <c r="E33" t="n">
+        <v>32</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>0.6925064325332642</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.692249059677124</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5258780121803284</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.5019920468330383</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.5418326854705811</v>
+      </c>
+      <c r="M33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>50</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D34" t="n">
+        <v>30</v>
+      </c>
+      <c r="E34" t="n">
+        <v>64</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>0.6917885541915894</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.7022525668144226</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5335027575492859</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.5139442086219788</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.5338645577430725</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>50</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D35" t="n">
+        <v>60</v>
+      </c>
+      <c r="E35" t="n">
+        <v>16</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>0.692186713218689</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.6943533420562744</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5353512167930603</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.5418326854705811</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.5458167195320129</v>
+      </c>
+      <c r="M35" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>50</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D36" t="n">
+        <v>60</v>
+      </c>
+      <c r="E36" t="n">
+        <v>32</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>0.6968803405761719</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.7141016721725464</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.516173779964447</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.4621514081954956</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.5378485918045044</v>
+      </c>
+      <c r="M36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>50</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D37" t="n">
+        <v>60</v>
+      </c>
+      <c r="E37" t="n">
+        <v>64</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>0.6971980333328247</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.6965429186820984</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5254158973693848</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.5179283022880554</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.5697211027145386</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>30</v>
+      </c>
+      <c r="E38" t="n">
+        <v>16</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>0.6781207919120789</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.7118142247200012</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5723198056221008</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.4701195359230042</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.5219123363494873</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>30</v>
+      </c>
+      <c r="E39" t="n">
+        <v>32</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>0.6793118715286255</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.7012299299240112</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5697782039642334</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.5179283022880554</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.5577689409255981</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>30</v>
+      </c>
+      <c r="E40" t="n">
+        <v>64</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>0.6776867508888245</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.7060778737068176</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5623844861984253</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.5139442086219788</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.5139442086219788</v>
+      </c>
+      <c r="M40" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>60</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>60</v>
+      </c>
+      <c r="E41" t="n">
+        <v>16</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>0.6911221146583557</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.6979117393493652</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5291127562522888</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5179283022880554</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.5418326854705811</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>60</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>60</v>
+      </c>
+      <c r="E42" t="n">
+        <v>32</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>0.6959686875343323</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.7017504572868347</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5164048075675964</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.5298804640769958</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.5498008131980896</v>
+      </c>
+      <c r="M42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>60</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>60</v>
+      </c>
+      <c r="E43" t="n">
+        <v>64</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>0.6512018442153931</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.7335299849510193</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.6215341687202454</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.4661354720592499</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.5059760808944702</v>
+      </c>
+      <c r="M43" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>60</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D44" t="n">
+        <v>30</v>
+      </c>
+      <c r="E44" t="n">
+        <v>16</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>0.6954404711723328</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.6998932957649231</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.5284196138381958</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.5099601745605469</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.5378485918045044</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>60</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D45" t="n">
+        <v>30</v>
+      </c>
+      <c r="E45" t="n">
+        <v>32</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>0.6956766247749329</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.7067267298698425</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5235674381256104</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.4900398552417755</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.5219123363494873</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>60</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D46" t="n">
+        <v>30</v>
+      </c>
+      <c r="E46" t="n">
+        <v>64</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>0.6939460635185242</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.6969659924507141</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5226432681083679</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.4940239191055298</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.525896430015564</v>
+      </c>
+      <c r="M46" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>60</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D47" t="n">
+        <v>60</v>
+      </c>
+      <c r="E47" t="n">
+        <v>16</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>0.6928125023841858</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.6972470283508301</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5251848697662354</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.5059760808944702</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.5338645577430725</v>
+      </c>
+      <c r="M47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>60</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D48" t="n">
+        <v>60</v>
+      </c>
+      <c r="E48" t="n">
+        <v>32</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>0.6980024576187134</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.7142153382301331</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.5039278864860535</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.4780876636505127</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.5657370686531067</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>60</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D49" t="n">
+        <v>60</v>
+      </c>
+      <c r="E49" t="n">
+        <v>64</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>0.7002744674682617</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.7005155682563782</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.51686692237854</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.4980079829692841</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.5418326854705811</v>
+      </c>
+      <c r="M49" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/main/df_results_all.xlsx
+++ b/main/df_results_all.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2017-12-31</t>
+          <t>2016-12-31</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -527,22 +527,22 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.6830770373344421</v>
+        <v>0.683148205280304</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6967215538024902</v>
+        <v>0.6918628811836243</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5508317947387695</v>
+        <v>0.5531027913093567</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5347912311553955</v>
+        <v>0.5318725109100342</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5626242756843567</v>
+        <v>0.5557768940925598</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/main/df_results_all.xlsx
+++ b/main/df_results_all.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2016-12-31</t>
+          <t>2017-01-01</t>
         </is>
       </c>
       <c r="C2" t="n">

--- a/main/df_results_all.xlsx
+++ b/main/df_results_all.xlsx
@@ -502,7 +502,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -516,7 +516,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -527,22 +527,22 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.683148205280304</v>
+        <v>0.6517549157142639</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6918628811836243</v>
+        <v>0.7145540118217468</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5531027913093567</v>
+        <v>0.6242334842681885</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5318725109100342</v>
+        <v>0.5119521617889404</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5557768940925598</v>
+        <v>0.5577689409255981</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/main/df_results_all.xlsx
+++ b/main/df_results_all.xlsx
@@ -502,11 +502,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2017-01-01</t>
+          <t>['2015-01-01']</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -527,22 +527,22 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.6517549157142639</v>
+        <v>0.6830995678901672</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7145540118217468</v>
+        <v>0.7035796642303467</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6242334842681885</v>
+        <v>0.5524768829345703</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5119521617889404</v>
+        <v>0.4920634925365448</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5577689409255981</v>
+        <v>0.5277777910232544</v>
       </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
